--- a/test_wmh/test.xlsx
+++ b/test_wmh/test.xlsx
@@ -45,6 +45,14 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -54,22 +62,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -84,6 +77,28 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
@@ -92,8 +107,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -108,32 +131,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,29 +169,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -189,6 +189,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -201,169 +249,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +382,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,17 +434,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,162 +474,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="26" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="23" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="12" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="13" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="10" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="10" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="19" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="17" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
@@ -948,7 +948,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="17.6" outlineLevelRow="4"/>
@@ -958,10 +958,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>nbcb</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -972,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -982,19 +984,21 @@
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>3</v>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>第三方</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1005,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
